--- a/public/template/import_user_tpl.xlsx
+++ b/public/template/import_user_tpl.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr filterPrivacy="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="-80" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
@@ -179,6 +179,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -188,7 +189,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -524,7 +524,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -535,11 +535,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="32" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
@@ -556,7 +556,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1">
@@ -567,7 +567,7 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1">
@@ -578,7 +578,7 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1">
